--- a/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE731FA9-051D-1546-BE9B-DE73B3F3BDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7F795D-0218-454A-A382-BCFFA37D862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -825,18 +814,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1282,7 +1271,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1338,8 +1327,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1362,14 +1351,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1394,7 +1383,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1411,7 +1400,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1419,7 +1408,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1466,7 +1455,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,7 +1529,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1616,7 +1605,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,16 +1616,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1696,7 +1685,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,10 +1694,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1723,23 +1712,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1753,7 +1742,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1766,20 +1755,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2102,19 +2091,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2123,7 +2112,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2138,7 +2127,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2151,13 +2140,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>5.4600000381469727</v>
+        <v>5.4099998474121094</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2175,7 +2164,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2189,13 +2178,13 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>19576.966942536925</v>
+        <v>19397.690005852295</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2208,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2234,15 +2223,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>7.7716633478800459</v>
+        <v>7.7733167012532549</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2250,7 +2239,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2261,7 +2250,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2275,7 +2264,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2287,8 +2276,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2299,7 +2288,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2310,7 +2299,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2324,7 +2313,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2333,8 +2322,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2347,7 +2336,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2358,7 +2347,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2369,7 +2358,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2381,7 +2370,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2394,10 +2383,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.19582080881783459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.19398630225137631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2410,10 +2399,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-3.4827755607560087E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-3.5157117761565583E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2429,7 +2418,7 @@
         <v>-1.0479275028623996</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2442,11 +2431,11 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>3.6496962964132379E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.6842110623716728E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2464,919 +2453,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>-4.69445783460535</v>
+        <v>-4.6845182230473581</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>1.7063359972256666</v>
+        <v>1.7093996125022224</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.3650687977805334</v>
+        <v>1.3675196900017779</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3440,7 +3429,7 @@
       <selection pane="topRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3448,7 +3437,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3456,7 +3445,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3473,7 +3462,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3499,13 +3488,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3555,7 +3544,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3577,7 +3566,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3628,7 +3617,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3650,7 +3639,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3701,7 +3690,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3725,7 +3714,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3776,7 +3765,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3794,7 +3783,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3845,7 +3834,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3863,7 +3852,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3881,7 +3870,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3899,7 +3888,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3921,7 +3910,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3943,7 +3932,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -3994,7 +3983,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4045,7 +4034,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4096,7 +4085,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4147,7 +4136,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4198,7 +4187,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4249,7 +4238,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4300,7 +4289,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4321,7 +4310,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4342,7 +4331,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4363,7 +4352,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4384,7 +4373,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4405,7 +4394,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4426,7 +4415,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4447,7 +4436,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4498,7 +4487,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4519,7 +4508,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4540,7 +4529,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4561,7 +4550,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4612,7 +4601,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4663,7 +4652,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4681,7 +4670,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4732,7 +4721,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4783,7 +4772,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4834,7 +4823,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4885,7 +4874,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4936,7 +4925,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -4987,7 +4976,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5038,7 +5027,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5056,7 +5045,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5107,7 +5096,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5158,7 +5147,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5175,7 +5164,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5225,7 +5214,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5275,7 +5264,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5325,7 +5314,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5375,1260 +5364,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6667,7 +6656,7 @@
       <selection activeCell="D91" sqref="D91:E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6676,11 +6665,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6696,7 +6685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6719,7 +6708,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6735,7 +6724,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6750,18 +6739,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>29008986.23809395</v>
+        <v>29015157.646080017</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>-1.255069671579637</v>
+        <v>-1.2555494179198261</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6775,14 +6764,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>62.877283406090747</v>
+        <v>62.904039435548114</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6798,13 +6787,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6823,7 +6812,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6848,7 +6837,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6873,7 +6862,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6896,7 +6885,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6919,7 +6908,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6940,7 +6929,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6963,7 +6952,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -6981,7 +6970,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7001,7 +6990,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7020,7 +7009,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7040,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7062,7 +7051,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7081,7 +7070,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7103,7 +7092,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7112,7 +7101,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7134,7 +7123,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7163,7 +7152,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7196,7 +7185,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7229,7 +7218,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7258,7 +7247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7270,7 +7259,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7289,7 +7278,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7311,7 +7300,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7331,7 +7320,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7354,7 +7343,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7379,7 +7368,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7400,7 +7389,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7424,7 +7413,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7446,7 +7435,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7465,7 +7454,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7482,7 +7471,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7501,7 +7490,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7520,7 +7509,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7544,7 +7533,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7553,7 +7542,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7572,7 +7561,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7591,7 +7580,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7621,7 +7610,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7651,7 +7640,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7677,7 +7666,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7704,20 +7693,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7734,7 +7723,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7755,7 +7744,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7764,7 +7753,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7775,7 +7764,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7790,7 +7779,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7805,7 +7794,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7819,7 +7808,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7828,7 +7817,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7842,7 +7831,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7863,7 +7852,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7884,7 +7873,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7905,7 +7894,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7920,7 +7909,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -7941,7 +7930,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7951,7 +7940,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -7965,7 +7954,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -7986,7 +7975,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8001,7 +7990,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8022,7 +8011,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8036,7 +8025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -8050,7 +8039,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8065,7 +8054,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8086,7 +8075,7 @@
         <v>0.45524911405880131</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8101,7 +8090,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8122,7 +8111,7 @@
         <v>0.44873026767330132</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8137,7 +8126,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8158,7 +8147,7 @@
         <v>0.12063647696552883</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8179,7 +8168,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8203,7 +8192,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8223,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8244,7 +8233,7 @@
         <v>-5.4615858697631421E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8255,7 +8244,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8276,7 +8265,7 @@
         <v>-4.0961894023223561E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8291,7 +8280,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8312,11 +8301,11 @@
         <v>-1.0479275028623996</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8326,7 +8315,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8337,7 +8326,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8350,11 +8339,11 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.4827755607560087E-2</v>
+        <v>-3.5157117761565583E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8371,14 +8360,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>-0.24397705799959887</v>
+        <v>-0.24356105979054718</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8396,25 +8385,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>-4542232.0819000732</v>
+        <v>-4535451.9261352755</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>-1.2668248055606597</v>
+        <v>-1.2649338256737803</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>-0.94270056614650266</v>
+        <v>-0.94129340408107076</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8430,17 +8419,17 @@
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>9436720.4595059734</v>
+        <v>9438728.0392100029</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.6318936033411933</v>
+        <v>2.6324535156755582</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8448,32 +8437,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>4894488.3776059002</v>
+        <v>4903276.1130747274</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.3650687977805334</v>
+        <v>1.3675196900017779</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>-4.69445783460535</v>
+        <v>-4.6845182230473581</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.7063359972256666</v>
+        <v>1.7093996125022224</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8490,34 +8479,34 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>11164059.960184595</v>
+        <v>11166435.01625273</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>3.1136471746314287</v>
+        <v>3.1143095758226185</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>2.3352353809735718</v>
+        <v>2.3357321818669639</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.8920589682892857</v>
+        <v>3.8928869697782731</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8534,28 +8523,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>8029274.1688952465</v>
+        <v>8034855.5646637287</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>2.2393579862059809</v>
+        <v>2.2409146329121983</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.6795184896544857</v>
+        <v>1.6806859746841487</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>2.7991974827574762</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.8011432911402476</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7F795D-0218-454A-A382-BCFFA37D862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B88323-1D83-194C-AD3C-DDBF0B1A980E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -814,18 +825,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1271,7 +1282,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1327,8 +1338,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1351,14 +1362,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1383,7 +1394,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1400,7 +1411,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1408,7 +1419,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1455,7 +1466,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1529,7 +1540,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1605,7 +1616,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,16 +1627,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1685,7 +1696,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1694,10 +1705,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1712,23 +1723,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,7 +1753,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1755,20 +1766,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2091,19 +2102,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2112,7 +2123,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2127,7 +2138,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2146,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2164,7 +2175,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2184,7 +2195,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2208,7 +2219,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2223,15 +2234,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>7.7733167012532549</v>
+        <v>7.7742199897766113</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2239,7 +2250,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2250,7 +2261,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2264,7 +2275,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2276,8 +2287,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2288,7 +2299,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2299,7 +2310,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2322,8 +2333,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2336,7 +2347,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2347,7 +2358,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2358,7 +2369,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2370,7 +2381,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2383,10 +2394,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.19398630225137631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.19396376293543949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2399,10 +2410,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-3.5157117761565583E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-3.516120315036534E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2418,7 +2429,7 @@
         <v>-1.0479275028623996</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2431,11 +2442,11 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>3.6842110623716728E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.6846391814999893E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2453,919 +2464,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>-4.6845182230473581</v>
+        <v>-4.6857579957106044</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>1.7093996125022224</v>
+        <v>1.7096317300588602</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.3675196900017779</v>
+        <v>1.3677053840470881</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3429,7 +3440,7 @@
       <selection pane="topRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3437,7 +3448,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3445,7 +3456,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3462,7 +3473,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3488,13 +3499,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3544,7 +3555,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3566,7 +3577,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3617,7 +3628,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3639,7 +3650,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3690,7 +3701,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3714,7 +3725,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3765,7 +3776,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3783,7 +3794,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3834,7 +3845,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3852,7 +3863,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3870,7 +3881,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3888,7 +3899,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3910,7 +3921,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3932,7 +3943,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -3983,7 +3994,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4034,7 +4045,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4085,7 +4096,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4136,7 +4147,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4187,7 +4198,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4238,7 +4249,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4289,7 +4300,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4310,7 +4321,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4331,7 +4342,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4352,7 +4363,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4373,7 +4384,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4394,7 +4405,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4415,7 +4426,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4436,7 +4447,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4487,7 +4498,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4508,7 +4519,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4529,7 +4540,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4550,7 +4561,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4601,7 +4612,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4652,7 +4663,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4670,7 +4681,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4721,7 +4732,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4772,7 +4783,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4823,7 +4834,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4874,7 +4885,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4925,7 +4936,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -4976,7 +4987,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5027,7 +5038,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5045,7 +5056,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5096,7 +5107,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5147,7 +5158,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5164,7 +5175,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5214,7 +5225,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5264,7 +5275,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5314,7 +5325,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5364,1260 +5375,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6656,7 +6667,7 @@
       <selection activeCell="D91" sqref="D91:E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6665,11 +6676,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6685,7 +6696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6708,7 +6719,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6724,7 +6735,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6739,18 +6750,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>29015157.646080017</v>
+        <v>29018529.316103555</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>-1.2555494179198261</v>
+        <v>-1.2558115212125869</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6764,14 +6775,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>62.904039435548114</v>
+        <v>62.918659655064729</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6787,13 +6798,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6812,7 +6823,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6837,7 +6848,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6862,7 +6873,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6885,7 +6896,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6908,7 +6919,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6929,7 +6940,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6952,7 +6963,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -6970,7 +6981,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -6990,7 +7001,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7009,7 +7020,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7029,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7051,7 +7062,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7070,7 +7081,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7092,7 +7103,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7101,7 +7112,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7123,7 +7134,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7152,7 +7163,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7185,7 +7196,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7218,7 +7229,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7247,7 +7258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7259,7 +7270,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7278,7 +7289,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7300,7 +7311,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7320,7 +7331,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7343,7 +7354,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7368,7 +7379,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7389,7 +7400,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7413,7 +7424,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7435,7 +7446,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7454,7 +7465,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7471,7 +7482,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7490,7 +7501,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7509,7 +7520,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7533,7 +7544,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7542,7 +7553,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7561,7 +7572,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7580,7 +7591,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7610,7 +7621,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7640,7 +7651,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7666,7 +7677,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7693,20 +7704,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7723,7 +7734,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7744,7 +7755,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7753,7 +7764,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7764,7 +7775,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7779,7 +7790,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7794,7 +7805,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7808,7 +7819,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7817,7 +7828,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7831,7 +7842,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7852,7 +7863,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7873,7 +7884,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7894,7 +7905,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7909,7 +7920,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -7930,7 +7941,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7940,7 +7951,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -7954,7 +7965,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -7975,7 +7986,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -7990,7 +8001,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8011,7 +8022,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8025,7 +8036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -8039,7 +8050,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8054,7 +8065,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8075,7 +8086,7 @@
         <v>0.45524911405880131</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8090,7 +8101,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8111,7 +8122,7 @@
         <v>0.44873026767330132</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8126,7 +8137,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8147,7 +8158,7 @@
         <v>0.12063647696552883</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8168,7 +8179,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8192,7 +8203,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8212,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8233,7 +8244,7 @@
         <v>-5.4615858697631421E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8244,7 +8255,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8265,7 +8276,7 @@
         <v>-4.0961894023223561E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8280,7 +8291,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8301,11 +8312,11 @@
         <v>-1.0479275028623996</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8315,7 +8326,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8326,7 +8337,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8339,11 +8350,11 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.5157117761565583E-2</v>
+        <v>-3.516120315036534E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8360,14 +8371,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>-0.24356105979054718</v>
+        <v>-0.24355590333856131</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8385,25 +8396,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>-4535451.9261352755</v>
+        <v>-4535882.9310433427</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>-1.2649338256737803</v>
+        <v>-1.2650540325894581</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>-0.94129340408107076</v>
+        <v>-0.94138285538244015</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8419,17 +8430,17 @@
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>9438728.0392100029</v>
+        <v>9439824.8547702804</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.6324535156755582</v>
+        <v>2.6327594166365467</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8437,32 +8448,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>4903276.1130747274</v>
+        <v>4903941.9237269377</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.3675196900017779</v>
+        <v>1.3677053840470881</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>-4.6845182230473581</v>
+        <v>-4.6857579957106044</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.7093996125022224</v>
+        <v>1.7096317300588602</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8479,34 +8490,34 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>11166435.01625273</v>
+        <v>11167732.597836582</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>3.1143095758226185</v>
+        <v>3.1146714702630658</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>2.3357321818669639</v>
+        <v>2.3360036026972995</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.8928869697782731</v>
+        <v>3.8933393378288321</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8523,28 +8534,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>8034855.5646637287</v>
+        <v>8035837.2607817585</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>2.2409146329121983</v>
+        <v>2.2411884271550768</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.6806859746841487</v>
+        <v>1.6808913203663076</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>2.8011432911402476</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.801485533943846</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B88323-1D83-194C-AD3C-DDBF0B1A980E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F77CD87-50D0-483F-8BB1-0499C2C33905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -825,18 +814,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1282,7 +1271,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1338,8 +1327,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1362,14 +1351,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1394,7 +1383,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1411,7 +1400,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1419,7 +1408,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1466,7 +1455,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,7 +1529,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1616,7 +1605,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,16 +1616,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1696,7 +1685,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,10 +1694,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1723,23 +1712,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1753,7 +1742,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1766,20 +1755,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2102,19 +2091,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2123,7 +2112,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2138,7 +2127,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2157,7 +2146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2175,7 +2164,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2195,7 +2184,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2208,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2234,15 +2223,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>7.7742199897766113</v>
+        <v>7.7738432884216309</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2250,7 +2239,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2261,7 +2250,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2275,7 +2264,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2287,8 +2276,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2299,7 +2288,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2310,7 +2299,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2324,7 +2313,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2333,8 +2322,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2347,7 +2336,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2358,7 +2347,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2369,7 +2358,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2381,7 +2370,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2394,10 +2383,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.19396376293543949</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.1939731619430608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2410,10 +2399,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-3.516120315036534E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-3.5159499407367727E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2429,7 +2418,7 @@
         <v>-1.0479275028623996</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2442,11 +2431,11 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>3.6846391814999893E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.684460641585488E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2464,919 +2453,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>-4.6857579957106044</v>
+        <v>-4.6852409536925563</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>1.7096317300588602</v>
+        <v>1.7095349284414096</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.3677053840470881</v>
+        <v>1.3676279427531277</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3440,7 +3429,7 @@
       <selection pane="topRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3448,7 +3437,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3456,7 +3445,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3473,7 +3462,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3499,13 +3488,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3555,7 +3544,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3577,7 +3566,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3628,7 +3617,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3650,7 +3639,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3701,7 +3690,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3725,7 +3714,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3776,7 +3765,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3794,7 +3783,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3845,7 +3834,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3863,7 +3852,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3881,7 +3870,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3899,7 +3888,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3921,7 +3910,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3943,7 +3932,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -3994,7 +3983,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4045,7 +4034,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4096,7 +4085,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4147,7 +4136,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4198,7 +4187,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4249,7 +4238,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4300,7 +4289,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4321,7 +4310,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4342,7 +4331,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4363,7 +4352,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4384,7 +4373,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4405,7 +4394,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4426,7 +4415,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4447,7 +4436,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4498,7 +4487,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4519,7 +4508,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4540,7 +4529,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4561,7 +4550,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4612,7 +4601,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4663,7 +4652,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4681,7 +4670,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4732,7 +4721,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4783,7 +4772,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4834,7 +4823,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4885,7 +4874,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4936,7 +4925,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -4987,7 +4976,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5038,7 +5027,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5056,7 +5045,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5107,7 +5096,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5158,7 +5147,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5175,7 +5164,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5225,7 +5214,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5275,7 +5264,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5325,7 +5314,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5375,1260 +5364,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6667,7 +6656,7 @@
       <selection activeCell="D91" sqref="D91:E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6676,11 +6665,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6696,7 +6685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6719,7 +6708,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6735,7 +6724,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6750,18 +6739,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>29018529.316103555</v>
+        <v>29017123.217571832</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>-1.2558115212125869</v>
+        <v>-1.2557022154227151</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6775,14 +6764,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>62.918659655064729</v>
+        <v>62.912562330794174</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6798,13 +6787,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6823,7 +6812,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6848,7 +6837,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6873,7 +6862,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6896,7 +6885,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6919,7 +6908,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6940,7 +6929,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6963,7 +6952,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -6981,7 +6970,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7001,7 +6990,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7020,7 +7009,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7040,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7062,7 +7051,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7081,7 +7070,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7103,7 +7092,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7112,7 +7101,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7134,7 +7123,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7163,7 +7152,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7196,7 +7185,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7229,7 +7218,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7258,7 +7247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7270,7 +7259,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7289,7 +7278,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7311,7 +7300,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7331,7 +7320,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7354,7 +7343,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7379,7 +7368,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7400,7 +7389,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7424,7 +7413,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7446,7 +7435,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7465,7 +7454,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7482,7 +7471,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7501,7 +7490,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7520,7 +7509,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7544,7 +7533,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7553,7 +7542,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7572,7 +7561,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7591,7 +7580,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7621,7 +7610,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7651,7 +7640,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7677,7 +7666,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7704,20 +7693,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7734,7 +7723,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7755,7 +7744,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7764,7 +7753,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7775,7 +7764,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7790,7 +7779,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7805,7 +7794,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7819,7 +7808,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7828,7 +7817,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7842,7 +7831,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7863,7 +7852,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7884,7 +7873,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7905,7 +7894,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7920,7 +7909,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -7941,7 +7930,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7951,7 +7940,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -7965,7 +7954,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -7986,7 +7975,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8001,7 +7990,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8022,7 +8011,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8036,7 +8025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -8050,7 +8039,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8065,7 +8054,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8086,7 +8075,7 @@
         <v>0.45524911405880131</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8101,7 +8090,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8122,7 +8111,7 @@
         <v>0.44873026767330132</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8137,7 +8126,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8158,7 +8147,7 @@
         <v>0.12063647696552883</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8179,7 +8168,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8203,7 +8192,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8223,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8244,7 +8233,7 @@
         <v>-5.4615858697631421E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8255,7 +8244,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8276,7 +8265,7 @@
         <v>-4.0961894023223561E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8291,7 +8280,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8312,11 +8301,11 @@
         <v>-1.0479275028623996</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8326,7 +8315,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8337,7 +8326,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8350,11 +8339,11 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.516120315036534E-2</v>
+        <v>-3.5159499407367727E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8371,14 +8360,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>-0.24355590333856131</v>
+        <v>-0.24355805373991168</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8396,25 +8385,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>-4535882.9310433427</v>
+        <v>-4535703.1901776865</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>-1.2650540325894581</v>
+        <v>-1.2650039030093134</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>-0.94138285538244015</v>
+        <v>-0.94134555173684087</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8430,17 +8419,17 @@
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>9439824.8547702804</v>
+        <v>9439367.4462047592</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.6327594166365467</v>
+        <v>2.6326318457624409</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8448,32 +8437,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>4903941.9237269377</v>
+        <v>4903664.2560270727</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.3677053840470881</v>
+        <v>1.3676279427531277</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>-4.6857579957106044</v>
+        <v>-4.6852409536925563</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.7096317300588602</v>
+        <v>1.7095349284414096</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8490,34 +8479,34 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>11167732.597836582</v>
+        <v>11167191.463162336</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>3.1146714702630658</v>
+        <v>3.1145205482458458</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>2.3360036026972995</v>
+        <v>2.3358904111843843</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.8933393378288321</v>
+        <v>3.8931506853073072</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8534,28 +8523,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>8035837.2607817585</v>
+        <v>8035427.8595947046</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>2.2411884271550768</v>
+        <v>2.2410742454994868</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.6808913203663076</v>
+        <v>1.6808056841246151</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>2.801485533943846</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.8013428068743584</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F77CD87-50D0-483F-8BB1-0499C2C33905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7082B39-A9AD-4B6F-82AA-79A29B76B86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>5.4099998474121094</v>
+        <v>5.440000057220459</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>19397.690005852295</v>
+        <v>19505.256509805389</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>7.7738432884216309</v>
+        <v>7.7740966478983564</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.1939731619430608</v>
+        <v>0.19504244957110559</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>-3.5159499407367727E-2</v>
+        <v>-3.4966743328846271E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>3.684460641585488E-2</v>
+        <v>3.6642612019828345E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2459,16 +2459,16 @@
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>-4.6852409536925563</v>
+        <v>-4.6929453886077788</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>1.7095349284414096</v>
+        <v>1.7080104441369273</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.3676279427531277</v>
+        <v>1.3664083553095419</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6746,11 +6746,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>29017123.217571832</v>
+        <v>29018068.922660258</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>-1.2557022154227151</v>
+        <v>-1.2557757316375064</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6771,7 +6771,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>62.912562330794174</v>
+        <v>62.916663199058284</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -8339,7 +8339,7 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.5159499407367727E-2</v>
+        <v>-3.4966743328846271E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>-0.24355805373991168</v>
+        <v>-0.24380144141557042</v>
       </c>
       <c r="H92" s="195"/>
     </row>
@@ -8391,15 +8391,15 @@
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>-4535703.1901776865</v>
+        <v>-4540383.6925498527</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>-1.2650039030093134</v>
+        <v>-1.2663092912855249</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>-0.94134555173684087</v>
+        <v>-0.94231694909314767</v>
       </c>
       <c r="H95" s="24"/>
     </row>
@@ -8425,11 +8425,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>9439367.4462047592</v>
+        <v>9439675.0872399658</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.6326318457624409</v>
+        <v>2.6327176465950668</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8443,19 +8443,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>4903664.2560270727</v>
+        <v>4899291.3946901131</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>1.3676279427531277</v>
+        <v>1.3664083553095419</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>-4.6852409536925563</v>
+        <v>-4.6929453886077788</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>1.7095349284414096</v>
+        <v>1.7080104441369273</v>
       </c>
       <c r="H98" s="24"/>
     </row>
@@ -8485,19 +8485,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>11167191.463162336</v>
+        <v>11167555.416187968</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>3.1145205482458458</v>
+        <v>3.1146220544464569</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>2.3358904111843843</v>
+        <v>2.3359665408348427</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>3.8931506853073072</v>
+        <v>3.8932775680580711</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>222</v>
@@ -8529,19 +8529,19 @@
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>8035427.8595947046</v>
+        <v>8033423.4054390406</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>2.2410742454994868</v>
+        <v>2.2405152048779993</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.6808056841246151</v>
+        <v>1.6803864036584995</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>2.8013428068743584</v>
+        <v>2.8006440060974991</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932FB18-EF11-46D2-A280-200EA8D3DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA65814-0227-42B3-A5B4-60C8A7D4A1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2391,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>5.4400000572204599</v>
+        <v>5.3000001907348633</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="G5" s="238">
         <f>G3*G4/1000000</f>
-        <v>19505.256509805393</v>
+        <v>19003.283480684633</v>
       </c>
       <c r="H5" s="238"/>
       <c r="I5" s="38"/>
@@ -2480,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>7.8</v>
+        <v>7.7769298553466797</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2529,7 +2529,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2575,7 +2575,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-1.612858430453621E-2</v>
+        <v>-1.6505658173836507E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6764705495644603E-2</v>
+        <v>3.7624235972292183E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2726,20 +2726,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.7015463137752513</v>
+        <v>1.8068037069614116</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.0501703904781152</v>
+        <v>3.3000776910581111</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4401363123824922</v>
+        <v>2.6400621528464887</v>
       </c>
       <c r="G29" s="237">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>2.4401363123824922</v>
+        <v>2.6400621528464887</v>
       </c>
       <c r="H29" s="237"/>
     </row>
@@ -10374,17 +10374,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.1493460123902915E-2</v>
+        <v>-2.1995960654671277E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="165">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.612858430453621E-2</v>
+        <v>-1.6505658173836507E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="165">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.612858430453621E-2</v>
+        <v>-1.6505658173836507E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10425,17 +10425,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6764705495644603E-2</v>
+        <v>3.7624235972292183E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6764705495644603E-2</v>
+        <v>3.7624235972292183E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6764705495644603E-2</v>
+        <v>3.7624235972292183E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10493,14 +10493,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-0.14814746564367373</v>
+        <v>-0.15682523362998144</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-0.14814746564367373</v>
+        <v>-0.15682523362998144</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10518,14 +10518,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>0.43877146257384375</v>
+        <v>0.46729592396927644</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>231</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>0.43877146257384375</v>
+        <v>0.46729592396927644</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10565,19 +10565,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2954083.0613847044</v>
+        <v>-3176807.2362207063</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.57451269182921061</v>
+        <v>-0.60636611391964468</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.82389134512987339</v>
+        <v>-0.88600893498280053</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-0.82389134512987339</v>
+        <v>-0.88600893498280053</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-2954083.0613847044</v>
+        <v>-3176807.2362207063</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-F98+F99,0)</f>
@@ -10676,23 +10676,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8749169.8881028686</v>
+        <v>9466008.9984283876</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.7015463137752513</v>
+        <v>1.8068037069614116</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.4401363123824922</v>
+        <v>2.6400621528464887</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>2.4401363123824922</v>
+        <v>2.6400621528464887</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>3.0501703904781152</v>
+        <v>3.3000776910581111</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10728,23 +10728,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>4374584.9440514343</v>
+        <v>4733004.4992141938</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.85077315688762567</v>
+        <v>0.90340185348070579</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.2200681561912461</v>
+        <v>1.3200310764232444</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.2200681561912461</v>
+        <v>1.3200310764232444</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.5250851952390576</v>
+        <v>1.6500388455290556</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA65814-0227-42B3-A5B4-60C8A7D4A1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AAB5428-B652-443E-9F57-7B8FC5E2875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2391,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>5.3000001907348633</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="G5" s="238">
         <f>G3*G4/1000000</f>
-        <v>19003.283480684633</v>
+        <v>18393.743947610779</v>
       </c>
       <c r="H5" s="238"/>
       <c r="I5" s="38"/>
@@ -2480,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>7.7769298553466797</v>
+        <v>7.7829766273498535</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-1.6505658173836507E-2</v>
+        <v>-1.7065888413507872E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7624235972292183E-2</v>
+        <v>3.8901266825240588E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2726,20 +2726,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.8068037069614116</v>
+        <v>1.8193630117942141</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3000776910581111</v>
+        <v>3.3230169187861924</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.6400621528464887</v>
+        <v>2.6584135350289539</v>
       </c>
       <c r="G29" s="237">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>2.6400621528464887</v>
+        <v>2.6584135350289539</v>
       </c>
       <c r="H29" s="237"/>
     </row>
@@ -10374,17 +10374,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.1995960654671277E-2</v>
+        <v>-2.2742541141167812E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="165">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6505658173836507E-2</v>
+        <v>-1.7065888413507872E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="165">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6505658173836507E-2</v>
+        <v>-1.7065888413507872E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10425,17 +10425,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7624235972292183E-2</v>
+        <v>3.8901266825240588E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7624235972292183E-2</v>
+        <v>3.8901266825240588E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7624235972292183E-2</v>
+        <v>3.8901266825240588E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10493,14 +10493,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-0.15682523362998144</v>
+        <v>-0.15637907853943567</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-0.15682523362998144</v>
+        <v>-0.15637907853943567</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10518,14 +10518,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>0.46729592396927644</v>
+        <v>0.4701785763540165</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>231</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>0.46729592396927644</v>
+        <v>0.4701785763540165</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10565,19 +10565,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3176807.2362207063</v>
+        <v>-3170232.5027964436</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.60636611391964468</v>
+        <v>-0.60511117609682907</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.88600893498280053</v>
+        <v>-0.88417524721836538</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-0.88600893498280053</v>
+        <v>-0.88417524721836538</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3176807.2362207063</v>
+        <v>-3170232.5027964436</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-F98+F99,0)</f>
@@ -10676,23 +10676,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9466008.9984283876</v>
+        <v>9531808.3390558474</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.8068037069614116</v>
+        <v>1.8193630117942141</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.6400621528464887</v>
+        <v>2.6584135350289539</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>2.6400621528464887</v>
+        <v>2.6584135350289539</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>3.3000776910581111</v>
+        <v>3.3230169187861924</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10728,23 +10728,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>4733004.4992141938</v>
+        <v>4765904.1695279237</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.90340185348070579</v>
+        <v>0.90968150589710706</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.3200310764232444</v>
+        <v>1.329206767514477</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.3200310764232444</v>
+        <v>1.329206767514477</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.6500388455290556</v>
+        <v>1.6615084593930962</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AAB5428-B652-443E-9F57-7B8FC5E2875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B1857F-7FB7-4F77-9BA6-AD916AC75C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2391,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>5.130000114440918</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="G5" s="238">
         <f>G3*G4/1000000</f>
-        <v>18393.743947610779</v>
+        <v>18573.019174583831</v>
       </c>
       <c r="H5" s="238"/>
       <c r="I5" s="38"/>
@@ -2480,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>7.7829766273498535</v>
+        <v>7.7829033533732099</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-1.7065888413507872E-2</v>
+        <v>-1.6901001579533909E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8901266825240588E-2</v>
+        <v>3.8525411401311216E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2726,20 +2726,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.8193630117942141</v>
+        <v>1.8160572336808716</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3230169187861924</v>
+        <v>3.3169790052256891</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.6584135350289539</v>
+        <v>2.6535832041805514</v>
       </c>
       <c r="G29" s="237">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>2.6584135350289539</v>
+        <v>2.6535832041805514</v>
       </c>
       <c r="H29" s="237"/>
     </row>
@@ -10374,17 +10374,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.2742541141167812E-2</v>
+        <v>-2.252280774584562E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="165">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.7065888413507872E-2</v>
+        <v>-1.6901001579533909E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="165">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.7065888413507872E-2</v>
+        <v>-1.6901001579533909E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10425,17 +10425,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8901266825240588E-2</v>
+        <v>3.8525411401311216E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8901266825240588E-2</v>
+        <v>3.8525411401311216E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8901266825240588E-2</v>
+        <v>3.8525411401311216E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10493,14 +10493,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-0.15637907853943567</v>
+        <v>-0.1565102852149691</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-0.15637907853943567</v>
+        <v>-0.1565102852149691</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10518,14 +10518,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>0.4701785763540165</v>
+        <v>0.46932868160212249</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>231</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>0.4701785763540165</v>
+        <v>0.46932868160212249</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10565,19 +10565,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3170232.5027964436</v>
+        <v>-3172862.550039737</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.60511117609682907</v>
+        <v>-0.60561318059623903</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.88417524721836538</v>
+        <v>-0.88490876523935724</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-0.88417524721836538</v>
+        <v>-0.88490876523935724</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3170232.5027964436</v>
+        <v>-3172862.550039737</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-F98+F99,0)</f>
@@ -10676,23 +10676,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9531808.3390558474</v>
+        <v>9514489.0667701308</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.8193630117942141</v>
+        <v>1.8160572336808716</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.6584135350289539</v>
+        <v>2.6535832041805514</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>2.6584135350289539</v>
+        <v>2.6535832041805514</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>3.3230169187861924</v>
+        <v>3.3169790052256891</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10728,23 +10728,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>4765904.1695279237</v>
+        <v>4757244.5333850654</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.90968150589710706</v>
+        <v>0.90802861684043579</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.329206767514477</v>
+        <v>1.3267916020902757</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.329206767514477</v>
+        <v>1.3267916020902757</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.6615084593930962</v>
+        <v>1.6584895026128446</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0069.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B1857F-7FB7-4F77-9BA6-AD916AC75C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A08E9655-F7A7-E442-930E-C5F44FAFA2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="12700" windowHeight="7640" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -893,18 +904,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1358,7 +1369,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="252">
@@ -1414,8 +1425,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1438,14 +1449,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1475,7 +1486,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1580,7 +1591,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1608,7 +1619,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,13 +1675,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1712,7 +1723,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1745,16 +1756,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1775,7 +1786,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1800,10 +1811,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1812,10 +1823,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1832,13 +1843,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1850,13 +1861,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1894,7 +1905,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1903,10 +1914,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1922,7 +1933,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1936,7 +1947,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1949,20 +1960,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2341,19 +2352,19 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -2362,7 +2373,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2377,7 +2388,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
@@ -2391,13 +2402,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>5.179999828338623</v>
+        <v>5.1599998474121094</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
@@ -2417,7 +2428,7 @@
       <c r="H4" s="246"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -2432,13 +2443,13 @@
       </c>
       <c r="G5" s="238">
         <f>G3*G4/1000000</f>
-        <v>18573.019174583831</v>
+        <v>18501.308741852295</v>
       </c>
       <c r="H5" s="238"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -2464,7 +2475,7 @@
       <c r="H6" s="239"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>209</v>
       </c>
@@ -2480,15 +2491,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>7.7829033533732099</v>
+        <v>7.7830300331115723</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>USD/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>207</v>
       </c>
@@ -2496,7 +2507,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2507,7 +2518,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
@@ -2521,7 +2532,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
@@ -2533,8 +2544,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2545,7 +2556,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>203</v>
       </c>
@@ -2570,7 +2581,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>196</v>
       </c>
@@ -2579,8 +2590,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>199</v>
       </c>
@@ -2595,7 +2606,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>181</v>
       </c>
@@ -2607,10 +2618,10 @@
         <v>232</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>182</v>
       </c>
@@ -2621,7 +2632,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>183</v>
       </c>
@@ -2633,7 +2644,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>184</v>
       </c>
@@ -2649,7 +2660,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
@@ -2662,10 +2673,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-1.6901001579533909E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>-1.6966785435306418E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>208</v>
       </c>
@@ -2681,7 +2692,7 @@
         <v>-2.2794750488611966</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
@@ -2694,11 +2705,11 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8525411401311216E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.867536405916254E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -2720,923 +2731,923 @@
       </c>
       <c r="H28" s="236"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.8160572336808716</v>
+        <v>1.1978136367628158</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3169790052256891</v>
+        <v>3.3194284177943385</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.6535832041805514</v>
+        <v>2.6555427342354707</v>
       </c>
       <c r="G29" s="237">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>2.6535832041805514</v>
+        <v>2.6555427342354707</v>
       </c>
       <c r="H29" s="237"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -3702,20 +3713,20 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="142" t="s">
         <v>211</v>
       </c>
@@ -3726,7 +3737,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
@@ -3742,7 +3753,7 @@
         <v>2.5641025641025644E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="142" t="s">
         <v>175</v>
       </c>
@@ -3757,7 +3768,7 @@
         <v>2.5641025641025644E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3765,7 +3776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>237</v>
       </c>
@@ -3773,7 +3784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="141" t="s">
         <v>238</v>
       </c>
@@ -3781,7 +3792,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="141" t="s">
         <v>239</v>
       </c>
@@ -3789,7 +3800,7 @@
         <v>3585525056</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>240</v>
       </c>
@@ -3797,7 +3808,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3805,7 +3816,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3813,7 +3824,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="227" t="s">
         <v>242</v>
       </c>
@@ -3821,7 +3832,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="227" t="s">
         <v>241</v>
       </c>
@@ -3829,7 +3840,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="234" t="s">
         <v>98</v>
       </c>
@@ -3837,7 +3848,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="116" t="s">
         <v>144</v>
       </c>
@@ -3886,7 +3897,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3906,7 +3917,7 @@
       <c r="L19" s="152"/>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>109</v>
       </c>
@@ -3926,7 +3937,7 @@
       <c r="L20" s="153"/>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
@@ -3946,7 +3957,7 @@
       <c r="L21" s="153"/>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>108</v>
       </c>
@@ -3962,7 +3973,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>110</v>
       </c>
@@ -3978,7 +3989,7 @@
       <c r="L23" s="153"/>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="97" t="s">
         <v>111</v>
       </c>
@@ -3994,7 +4005,7 @@
       <c r="L24" s="153"/>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>113</v>
       </c>
@@ -4010,7 +4021,7 @@
       <c r="L25" s="153"/>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>129</v>
       </c>
@@ -4030,7 +4041,7 @@
       <c r="L26" s="153"/>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="99" t="s">
         <v>114</v>
       </c>
@@ -4050,7 +4061,7 @@
       <c r="L27" s="153"/>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4066,7 +4077,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>121</v>
       </c>
@@ -4082,7 +4093,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>159</v>
       </c>
@@ -4098,7 +4109,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4114,7 +4125,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>120</v>
       </c>
@@ -4130,7 +4141,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4146,7 +4157,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4162,7 +4173,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>148</v>
       </c>
@@ -4178,7 +4189,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4194,7 +4205,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>147</v>
       </c>
@@ -4210,7 +4221,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4221,7 +4232,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4230,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4239,7 +4250,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
@@ -4248,7 +4259,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4257,7 +4268,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4266,7 +4277,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>170</v>
       </c>
@@ -4275,7 +4286,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>122</v>
       </c>
@@ -4284,7 +4295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4293,7 +4304,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
@@ -4311,7 +4322,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4320,7 +4331,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4329,7 +4340,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4338,7 +4349,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4347,7 +4358,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4356,7 +4367,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
@@ -4365,7 +4376,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4374,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4383,7 +4394,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4392,7 +4403,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4401,7 +4412,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
@@ -4410,7 +4421,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4419,7 +4430,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4428,7 +4439,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4437,7 +4448,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4446,100 +4457,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="121"/>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="83"/>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="121"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C75" s="83"/>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>243</v>
       </c>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4589,7 +4600,7 @@
       <selection pane="topRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -4597,7 +4608,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -4605,7 +4616,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -4630,7 +4641,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -4659,7 +4670,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -4681,7 +4692,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>144</v>
@@ -4731,7 +4742,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -4782,7 +4793,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -4833,7 +4844,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>109</v>
@@ -4884,7 +4895,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>105</v>
@@ -4935,7 +4946,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>107</v>
@@ -4986,7 +4997,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="94" t="s">
         <v>100</v>
@@ -5037,7 +5048,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="97" t="s">
         <v>108</v>
@@ -5088,7 +5099,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="98" t="s">
         <v>106</v>
@@ -5139,7 +5150,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="97" t="s">
         <v>110</v>
@@ -5190,7 +5201,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="97" t="s">
         <v>111</v>
@@ -5241,7 +5252,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>113</v>
@@ -5292,7 +5303,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>129</v>
@@ -5343,7 +5354,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="99" t="s">
         <v>114</v>
@@ -5394,7 +5405,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="99" t="s">
         <v>216</v>
@@ -5445,7 +5456,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="99" t="s">
         <v>217</v>
@@ -5496,7 +5507,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="94" t="s">
         <v>115</v>
@@ -5547,7 +5558,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>116</v>
@@ -5598,7 +5609,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>117</v>
@@ -5649,7 +5660,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="102" t="s">
         <v>118</v>
@@ -5700,7 +5711,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="101" t="s">
         <v>138</v>
@@ -5751,7 +5762,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="115" t="s">
         <v>145</v>
@@ -5802,7 +5813,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -5853,7 +5864,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -5904,7 +5915,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>121</v>
@@ -5955,7 +5966,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>159</v>
@@ -6006,7 +6017,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -6057,7 +6068,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>120</v>
@@ -6108,7 +6119,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -6159,7 +6170,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -6210,7 +6221,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -6261,7 +6272,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>148</v>
@@ -6312,7 +6323,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>149</v>
@@ -6363,7 +6374,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>147</v>
@@ -6414,7 +6425,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>151</v>
@@ -6465,7 +6476,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>169</v>
@@ -6516,7 +6527,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -6534,7 +6545,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>99</v>
@@ -6585,7 +6596,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>126</v>
@@ -6636,7 +6647,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>101</v>
@@ -6687,7 +6698,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>112</v>
@@ -6738,7 +6749,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>127</v>
@@ -6789,7 +6800,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>139</v>
@@ -6840,7 +6851,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>130</v>
@@ -6891,7 +6902,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="103" t="s">
         <v>160</v>
@@ -6909,7 +6920,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>157</v>
@@ -6960,7 +6971,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>158</v>
@@ -7011,7 +7022,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="103" t="s">
         <v>131</v>
@@ -7028,7 +7039,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -7078,7 +7089,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>125</v>
@@ -7128,7 +7139,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>128</v>
@@ -7178,7 +7189,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -7228,1260 +7239,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -8525,7 +8536,7 @@
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -8533,11 +8544,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -8553,7 +8564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -8577,7 +8588,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -8593,7 +8604,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -8608,7 +8619,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -8633,7 +8644,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -8656,13 +8667,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -8682,7 +8693,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -8707,7 +8718,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -8735,7 +8746,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
@@ -8763,7 +8774,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -8791,7 +8802,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -8819,7 +8830,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -8846,7 +8857,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>170</v>
       </c>
@@ -8868,7 +8879,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -8890,7 +8901,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -8911,7 +8922,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -8935,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -8961,7 +8972,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -8982,7 +8993,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -9008,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -9017,7 +9028,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -9039,7 +9050,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -9068,7 +9079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -9101,7 +9112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -9134,7 +9145,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -9164,7 +9175,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -9176,7 +9187,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9202,7 +9213,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -9229,7 +9240,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -9256,7 +9267,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
@@ -9286,7 +9297,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -9313,7 +9324,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -9338,7 +9349,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -9364,7 +9375,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -9390,7 +9401,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -9411,7 +9422,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -9432,7 +9443,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -9453,7 +9464,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -9474,7 +9485,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -9500,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -9509,7 +9520,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -9528,7 +9539,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -9547,7 +9558,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -9577,7 +9588,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -9607,7 +9618,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -9634,7 +9645,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -9661,20 +9672,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -9691,7 +9702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -9712,7 +9723,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -9721,7 +9732,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>161</v>
       </c>
@@ -9732,7 +9743,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -9747,7 +9758,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -9763,7 +9774,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -9778,7 +9789,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -9787,7 +9798,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>164</v>
       </c>
@@ -9801,7 +9812,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -9822,7 +9833,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>150</v>
       </c>
@@ -9843,7 +9854,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>152</v>
       </c>
@@ -9864,7 +9875,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>162</v>
       </c>
@@ -9879,7 +9890,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>153</v>
       </c>
@@ -9900,7 +9911,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -9910,7 +9921,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>165</v>
       </c>
@@ -9924,7 +9935,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>151</v>
       </c>
@@ -9945,7 +9956,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="122" t="s">
         <v>163</v>
       </c>
@@ -9960,7 +9971,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>154</v>
       </c>
@@ -9981,7 +9992,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>137</v>
@@ -10003,7 +10014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
@@ -10022,7 +10033,7 @@
       <c r="I73" s="249"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -10043,7 +10054,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10073,7 +10084,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -10094,7 +10105,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="105" t="s">
         <v>133</v>
       </c>
@@ -10124,7 +10135,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -10145,7 +10156,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="105" t="s">
         <v>129</v>
       </c>
@@ -10175,7 +10186,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -10205,7 +10216,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -10237,7 +10248,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="73" t="s">
         <v>186</v>
       </c>
@@ -10266,7 +10277,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="106" t="s">
         <v>134</v>
       </c>
@@ -10296,7 +10307,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -10317,7 +10328,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="86" t="s">
         <v>176</v>
       </c>
@@ -10347,7 +10358,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>172</v>
       </c>
@@ -10368,28 +10379,28 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>228</v>
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-2.252280774584562E-2</v>
+        <v>-2.2610473386806149E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="165">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6901001579533909E-2</v>
+        <v>-1.6966785435306418E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="165">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6901001579533909E-2</v>
+        <v>-1.6966785435306418E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>227</v>
       </c>
@@ -10419,32 +10430,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>229</v>
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8525411401311216E-2</v>
+        <v>3.867536405916254E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8525411401311216E-2</v>
+        <v>3.867536405916254E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8525411401311216E-2</v>
+        <v>3.867536405916254E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>166</v>
@@ -10454,7 +10465,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>167</v>
       </c>
@@ -10476,7 +10487,7 @@
       <c r="I92" s="248"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>HK Required Return</v>
@@ -10493,24 +10504,24 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>-0.1565102852149691</v>
+        <v>-0.15645792796382196</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>-0.1565102852149691</v>
+        <v>-0.15645792796382196</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -10518,22 +10529,22 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>0.46932868160212249</v>
+        <v>0.46966761124633039</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>231</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>0.46932868160212249</v>
+        <v>0.46966761124633039</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -10559,30 +10570,30 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3172862.550039737</v>
+        <v>-3171852.7614146965</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.60561318059623903</v>
+        <v>-0.3990214253808298</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>-0.88490876523935724</v>
+        <v>-0.88462713601929344</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>-0.88490876523935724</v>
+        <v>-0.88462713601929344</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>155</v>
       </c>
@@ -10599,7 +10610,7 @@
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="106" t="s">
         <v>156</v>
       </c>
@@ -10616,13 +10627,13 @@
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3172862.550039737</v>
+        <v>-3171852.7614146965</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-F98+F99,0)</f>
@@ -10642,11 +10653,11 @@
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>174</v>
       </c>
@@ -10670,37 +10681,37 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>9514489.0667701308</v>
+        <v>9521515.0108800288</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.8160572336808716</v>
+        <v>1.1978136367628158</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.6535832041805514</v>
+        <v>2.6555427342354707</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>2.6535832041805514</v>
+        <v>2.6555427342354707</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>3.3169790052256891</v>
+        <v>3.3194284177943385</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>214</v>
       </c>
@@ -10722,36 +10733,36 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>4757244.5333850654</v>
+        <v>4760757.5054400144</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>0.90802861684043579</v>
+        <v>0.59890681838140791</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.3267916020902757</v>
+        <v>1.3277713671177354</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.3267916020902757</v>
+        <v>1.3277713671177354</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>1.6584895026128446</v>
+        <v>1.6597142088971693</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
